--- a/training_data.xlsx
+++ b/training_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miyamotomasato/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miyamotomasato/Desktop/ORR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF5471D-5351-D94B-8DB2-65BE6BC7BB01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E357EBD-E701-B24C-BD90-BBFD100E8C76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="960" windowWidth="27900" windowHeight="16540" activeTab="1" xr2:uid="{414373EB-D336-AB4A-BCB4-BE8F3FAA2DD1}"/>
   </bookViews>
@@ -17,6 +17,55 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet2!$Q$4:$Q$8</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet2!$R$3</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet2!$A$13:$C$13</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet2!$A$14:$C$14</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet2!$A$15:$C$15</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet2!$A$16:$B$16</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet2!$A$16:$C$16</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet2!$A$17:$C$17</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Sheet2!$A$18:$C$18</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Sheet2!$A$19:$C$19</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Sheet2!$A$1:$C$1</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Sheet2!$A$1:$C$16</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet2!$R$4:$R$8</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Sheet2!$A$20:$C$20</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Sheet2!$A$21:$C$21</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Sheet2!$A$22:$C$22</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Sheet2!$A$2:$C$2</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">Sheet2!$A$3:$C$3</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">Sheet2!$A$4:$C$4</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">Sheet2!$A$5:$C$5</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">Sheet2!$A$6:$C$6</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">Sheet2!$A$7:$C$7</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">Sheet2!$A$8:$C$8</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet2!#REF!</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">Sheet2!$A$9:$C$9</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">Sheet2!$C$16</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">Sheet2!$C$1:$C$15</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">Sheet2!$D$1</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">Sheet2!$D$10</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">Sheet2!$D$11</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">Sheet2!$D$12</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">Sheet2!$D$13</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">Sheet2!$D$14</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">Sheet2!$D$15</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet2!#REF!</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">Sheet2!$D$16</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">Sheet2!$D$2</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">Sheet2!$D$3</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">Sheet2!$D$4</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">Sheet2!$D$5</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">Sheet2!$D$6</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">Sheet2!$D$7</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">Sheet2!$D$8</definedName>
+    <definedName name="_xlchart.v1.48" hidden="1">Sheet2!$D$9</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet2!$Q$6:$Q$8</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet2!$R$6:$R$8</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet2!$A$10:$C$10</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet2!$A$11:$C$11</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet2!$A$12:$C$12</definedName>
     <definedName name="test" localSheetId="0">Sheet1!$A$1:$C$543</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -49,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="645">
   <si>
     <t>氏名</t>
   </si>
@@ -1988,6 +2037,18 @@
   </si>
   <si>
     <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レベル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>style</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>skill</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2028,12 +2089,88 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -2042,7 +2179,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2051,6 +2188,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5436,10 +5597,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{942D7F46-DD38-9846-91A6-482897E0F563}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:W16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="94" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -5447,7 +5608,7 @@
     <col min="1" max="1" width="92.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:23">
       <c r="A1" t="s">
         <v>628</v>
       </c>
@@ -5458,7 +5619,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="83" customHeight="1">
+    <row r="2" spans="1:23" ht="83" customHeight="1" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -5468,8 +5629,9 @@
       <c r="C2" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="83" customHeight="1">
+      <c r="W2" s="5"/>
+    </row>
+    <row r="3" spans="1:23" ht="83" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>43</v>
       </c>
@@ -5479,8 +5641,27 @@
       <c r="C3" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="83" customHeight="1">
+      <c r="O3" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="W3" s="5"/>
+    </row>
+    <row r="4" spans="1:23" ht="83" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>73</v>
       </c>
@@ -5490,8 +5671,27 @@
       <c r="C4" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="83" customHeight="1">
+      <c r="O4" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="P4" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>2</v>
+      </c>
+      <c r="R4" s="3">
+        <v>6</v>
+      </c>
+      <c r="S4" s="3">
+        <v>3</v>
+      </c>
+      <c r="T4" s="3">
+        <v>2</v>
+      </c>
+      <c r="W4" s="5"/>
+    </row>
+    <row r="5" spans="1:23" ht="83" customHeight="1" thickBot="1">
       <c r="A5" s="2" t="s">
         <v>93</v>
       </c>
@@ -5501,8 +5701,28 @@
       <c r="C5" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="83" customHeight="1">
+      <c r="O5" s="10" t="s">
+        <v>644</v>
+      </c>
+      <c r="P5" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>7</v>
+      </c>
+      <c r="R5" s="3">
+        <v>1</v>
+      </c>
+      <c r="S5" s="3">
+        <v>2</v>
+      </c>
+      <c r="T5" s="3">
+        <v>2</v>
+      </c>
+      <c r="U5" s="5"/>
+      <c r="W5" s="6"/>
+    </row>
+    <row r="6" spans="1:23" ht="83" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>103</v>
       </c>
@@ -5512,8 +5732,13 @@
       <c r="C6" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="83" customHeight="1">
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+    </row>
+    <row r="7" spans="1:23" ht="83" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>132</v>
       </c>
@@ -5523,8 +5748,13 @@
       <c r="C7" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="83" customHeight="1">
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+    </row>
+    <row r="8" spans="1:23" ht="83" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>629</v>
       </c>
@@ -5534,8 +5764,13 @@
       <c r="C8" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="83" customHeight="1">
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+    </row>
+    <row r="9" spans="1:23" ht="83" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>309</v>
       </c>
@@ -5546,7 +5781,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="83" customHeight="1">
+    <row r="10" spans="1:23" ht="83" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>630</v>
       </c>
@@ -5557,7 +5792,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="83" customHeight="1">
+    <row r="11" spans="1:23" ht="83" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>631</v>
       </c>
@@ -5568,7 +5803,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="83" customHeight="1">
+    <row r="12" spans="1:23" ht="83" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>528</v>
       </c>
@@ -5579,7 +5814,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="83" customHeight="1">
+    <row r="13" spans="1:23" ht="83" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>538</v>
       </c>
@@ -5590,7 +5825,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="83" customHeight="1">
+    <row r="14" spans="1:23" ht="83" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>632</v>
       </c>
@@ -5601,7 +5836,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="83" customHeight="1">
+    <row r="15" spans="1:23" ht="83" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>633</v>
       </c>
@@ -5612,7 +5847,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="83" customHeight="1">
+    <row r="16" spans="1:23" ht="83" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>634</v>
       </c>
